--- a/building/signalboxes.xlsx
+++ b/building/signalboxes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B27A17-217B-4011-A6B2-7071BEDAEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65A87BE-2695-4827-B05E-1E0877339D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="31785" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>addon</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t>481_modified_by_Physka</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dims</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>建物の大きさ</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1,1,4</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -718,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
+      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75"/>
@@ -841,6 +859,9 @@
       <c r="AC1" t="s">
         <v>99</v>
       </c>
+      <c r="AD1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2" spans="1:35" ht="38.25">
       <c r="B2" s="3" t="s">
@@ -927,7 +948,9 @@
       <c r="AC2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AD2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:35">
@@ -1089,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="AA4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="6">
         <v>1000</v>
@@ -1097,7 +1120,9 @@
       <c r="AC4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AD4" s="6"/>
+      <c r="AD4" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="AE4" s="6"/>
     </row>
     <row r="5" spans="1:35">
